--- a/Sgnlog Classification.xlsx
+++ b/Sgnlog Classification.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wentinnliao/Desktop/LLNL Research 2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wentinnliao/Desktop/EOS2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBE8E2B-A897-2842-8F92-E83C6DA947A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6816985E-DA55-8740-AE79-4B369607C542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{4BD379A6-62B1-1D42-B2EE-5C35BB530ABF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{4BD379A6-62B1-1D42-B2EE-5C35BB530ABF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -499,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -535,6 +535,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -854,7 +857,7 @@
   <dimension ref="C4:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -883,10 +886,10 @@
       <c r="P5" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="R5" s="13" t="s">
         <v>70</v>
       </c>
       <c r="S5" s="11" t="s">
@@ -1048,7 +1051,7 @@
       <c r="G9" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="5" t="s">
         <v>113</v>
       </c>
       <c r="I9" s="5" t="s">
